--- a/BackTest/2020-01-13 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-13 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,7 +1045,7 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -6028,10 +6028,14 @@
         <v>17006.2351886</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1966</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1966</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6061,11 +6065,19 @@
         <v>16506.2351886</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1966</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1966</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6106,19 @@
         <v>16108.4277886</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1965</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1966</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,10 +6147,14 @@
         <v>16158.4277886</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1961</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1961</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6160,11 +6184,19 @@
         <v>15870.9637886</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1963</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6225,19 @@
         <v>15506.6978886</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1962</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6266,19 @@
         <v>15159.2721886</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1961</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6307,19 @@
         <v>13812.8706886</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1958</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6348,19 @@
         <v>12316.1029886</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1956</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6389,19 @@
         <v>11237.9640886</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1954</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6430,19 @@
         <v>11255.9640886</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1953</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6471,19 @@
         <v>11255.9640886</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1954</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,15 +6512,19 @@
         <v>11460.4790886</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>1954</v>
       </c>
       <c r="J183" t="n">
-        <v>1954</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+        <v>1961</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,17 +6553,17 @@
         <v>11460.4790886</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>1958</v>
       </c>
       <c r="J184" t="n">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6502,15 +6594,17 @@
         <v>11460.4790886</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1958</v>
+      </c>
       <c r="J185" t="n">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6541,15 +6635,19 @@
         <v>11560.4790886</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>1958</v>
       </c>
       <c r="J186" t="n">
-        <v>1958</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+        <v>1961</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6578,15 +6676,17 @@
         <v>11563.0120886</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1965</v>
+      </c>
       <c r="J187" t="n">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -6617,15 +6717,17 @@
         <v>11562.6633886</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1967</v>
+      </c>
       <c r="J188" t="n">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -6656,11 +6758,19 @@
         <v>11542.9790886</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1965</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +6799,19 @@
         <v>11603.0463886</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1962</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +6840,19 @@
         <v>7763.950788600001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6881,19 @@
         <v>7863.950788600001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1957</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6791,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6824,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6857,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6890,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6923,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6956,8 +7120,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6989,8 +7159,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7022,8 +7198,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7055,8 +7237,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7088,8 +7276,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7121,8 +7315,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7154,8 +7354,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7187,8 +7393,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7220,8 +7432,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7253,8 +7471,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7286,8 +7510,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +7549,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7588,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7385,8 +7627,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7418,8 +7666,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7451,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7484,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7514,11 +7780,19 @@
         <v>2592.829053910001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1965</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7547,11 +7821,19 @@
         <v>2534.803353910001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1965</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7580,11 +7862,19 @@
         <v>3085.130353910001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1964</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7613,11 +7903,19 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1966</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7649,8 +7947,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7682,8 +7986,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7715,8 +8025,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7748,8 +8064,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7781,8 +8103,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7814,8 +8142,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7847,8 +8181,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7880,8 +8220,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7913,8 +8259,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7946,8 +8298,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7976,15 +8334,17 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+        <v>1961</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8017,11 +8377,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>1976</v>
+        <v>1961</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8056,11 +8416,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>1976</v>
+        <v>1961</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8094,8 +8454,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8127,8 +8493,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8160,8 +8532,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8193,8 +8571,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8226,8 +8610,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8259,8 +8649,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8292,8 +8688,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8325,8 +8727,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8358,8 +8766,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8391,8 +8805,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8424,8 +8844,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8457,8 +8883,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8490,8 +8922,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8523,8 +8961,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8556,8 +9000,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8589,8 +9039,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8622,8 +9078,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8655,8 +9117,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8688,8 +9156,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8721,8 +9195,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8754,8 +9234,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8787,8 +9273,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8820,8 +9312,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8853,8 +9351,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8886,8 +9390,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8919,8 +9429,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8952,8 +9468,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8985,8 +9507,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9018,8 +9546,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9051,8 +9585,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9084,8 +9624,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9117,8 +9663,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9150,8 +9702,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +9738,19 @@
         <v>18007.52237763</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1961</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9213,15 +9779,19 @@
         <v>18101.85557763</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>1964</v>
       </c>
       <c r="J266" t="n">
-        <v>1964</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+        <v>1961</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9250,17 +9820,17 @@
         <v>18002.35557763</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>1965</v>
       </c>
       <c r="J267" t="n">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9291,17 +9861,15 @@
         <v>18456.11287763</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -9332,15 +9900,19 @@
         <v>18332.13987763</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>1964</v>
       </c>
       <c r="J269" t="n">
-        <v>1964</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+        <v>1961</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9369,17 +9941,17 @@
         <v>18924.90537763</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>1961</v>
       </c>
       <c r="J270" t="n">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9410,15 +9982,17 @@
         <v>19003.53457763</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1968</v>
+      </c>
       <c r="J271" t="n">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9449,11 +10023,19 @@
         <v>18767.16887763</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1969</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9485,8 +10067,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9518,8 +10106,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9551,8 +10145,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9584,8 +10184,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9617,8 +10223,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9650,8 +10262,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9683,8 +10301,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9716,8 +10340,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9749,8 +10379,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9782,8 +10418,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9815,8 +10457,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9848,8 +10496,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9881,8 +10535,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9914,8 +10574,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9947,8 +10613,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9980,8 +10652,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10013,8 +10691,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10046,8 +10730,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10079,8 +10769,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10112,8 +10808,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10145,8 +10847,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10178,8 +10886,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10211,8 +10925,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10244,8 +10964,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10277,8 +11003,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10310,8 +11042,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10343,8 +11081,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10376,8 +11120,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10409,8 +11159,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10442,8 +11198,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10475,8 +11237,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10508,8 +11276,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10541,8 +11315,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10574,8 +11354,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10607,8 +11393,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10640,8 +11432,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10673,8 +11471,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10706,8 +11510,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10739,8 +11549,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10772,8 +11588,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10802,11 +11624,17 @@
         <v>44525.52420263</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10835,11 +11663,17 @@
         <v>45523.05410263001</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10871,8 +11705,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10901,11 +11741,17 @@
         <v>48360.43220263001</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10937,8 +11783,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10970,8 +11822,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11003,8 +11861,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11033,11 +11897,17 @@
         <v>48590.01310263001</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11066,11 +11936,17 @@
         <v>48336.23500263</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11099,11 +11975,17 @@
         <v>50957.69660263001</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11135,8 +12017,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11168,8 +12056,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11201,8 +12095,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11234,8 +12134,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11267,8 +12173,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11300,8 +12212,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11333,8 +12251,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11366,8 +12290,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11399,8 +12329,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11432,8 +12368,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11465,8 +12407,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11498,8 +12446,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11531,8 +12485,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11564,8 +12524,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11597,8 +12563,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11630,8 +12602,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11663,8 +12641,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11696,8 +12680,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11729,8 +12719,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11762,8 +12758,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11795,8 +12797,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11828,8 +12836,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11861,8 +12875,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11894,8 +12914,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11927,8 +12953,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11960,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11993,8 +13031,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12026,8 +13070,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12059,8 +13109,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12092,8 +13148,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12125,8 +13187,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12158,8 +13226,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12191,8 +13265,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12224,8 +13304,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12257,8 +13343,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12290,8 +13382,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12323,8 +13421,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12356,8 +13460,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12389,8 +13499,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12422,8 +13538,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12455,8 +13577,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12488,8 +13616,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12521,8 +13655,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12554,8 +13694,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12587,8 +13733,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12620,8 +13772,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12653,8 +13811,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12686,8 +13850,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12719,8 +13889,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12752,8 +13928,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12785,8 +13967,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12818,8 +14006,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12851,8 +14045,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12884,8 +14084,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12917,8 +14123,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12950,8 +14162,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12983,8 +14201,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13016,8 +14240,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13049,8 +14279,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13082,8 +14318,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13115,8 +14357,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13148,8 +14396,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13178,11 +14432,17 @@
         <v>69345.65560263001</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13214,8 +14474,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13244,11 +14510,17 @@
         <v>70102.19560263</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13277,11 +14549,17 @@
         <v>70102.19560263</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13310,11 +14588,17 @@
         <v>69462.61200263001</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13343,11 +14627,17 @@
         <v>69462.61200263001</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13379,8 +14669,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13409,11 +14705,17 @@
         <v>66610.18120263</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13445,8 +14747,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13475,11 +14783,17 @@
         <v>67952.57320263001</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13511,8 +14825,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13544,8 +14864,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13577,8 +14903,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13610,8 +14942,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13643,8 +14981,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13676,8 +15020,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13709,8 +15059,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13739,11 +15095,17 @@
         <v>72479.56680263</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13775,8 +15137,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13808,8 +15176,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13841,8 +15215,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13874,8 +15254,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13907,8 +15293,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13937,13 +15329,19 @@
         <v>80487.88400262999</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1961</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L408" t="n">
-        <v>1</v>
+        <v>1.029166241713412</v>
       </c>
       <c r="M408" t="inlineStr"/>
     </row>
@@ -13970,7 +15368,7 @@
         <v>77935.75710262998</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14003,7 +15401,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14036,7 +15434,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14069,7 +15467,7 @@
         <v>78374.01410262998</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14102,7 +15500,7 @@
         <v>77576.01410262998</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14135,7 +15533,7 @@
         <v>76738.02140262998</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14168,7 +15566,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14201,7 +15599,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14234,7 +15632,7 @@
         <v>79738.72110262998</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14267,7 +15665,7 @@
         <v>79447.28900262997</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14300,7 +15698,7 @@
         <v>81980.74742086997</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14333,7 +15731,7 @@
         <v>81172.62713359998</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14366,7 +15764,7 @@
         <v>83293.99922808998</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14399,7 +15797,7 @@
         <v>83255.59162808997</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14432,7 +15830,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14465,7 +15863,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14498,7 +15896,7 @@
         <v>84239.95590498997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14531,7 +15929,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14564,7 +15962,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14597,7 +15995,7 @@
         <v>84284.87808421996</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14630,7 +16028,7 @@
         <v>83967.34288421996</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14663,7 +16061,7 @@
         <v>83588.20858421996</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14729,7 +16127,7 @@
         <v>83976.50278421996</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14762,7 +16160,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14795,7 +16193,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14828,7 +16226,7 @@
         <v>84195.11068421997</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14894,7 +16292,7 @@
         <v>79027.36098421997</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14927,7 +16325,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14960,7 +16358,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15059,7 +16457,7 @@
         <v>78935.65268529997</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15191,7 +16589,7 @@
         <v>78875.65268529997</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15224,7 +16622,7 @@
         <v>78875.65268529997</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15257,7 +16655,7 @@
         <v>78771.29508529996</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15290,7 +16688,7 @@
         <v>78771.29508529996</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15323,7 +16721,7 @@
         <v>77904.66568529996</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15356,7 +16754,7 @@
         <v>78105.45958529996</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15389,7 +16787,7 @@
         <v>73327.70498529996</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15422,7 +16820,7 @@
         <v>73091.71318529996</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15455,7 +16853,7 @@
         <v>73065.68728529997</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15488,7 +16886,7 @@
         <v>70155.76908529997</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15521,7 +16919,7 @@
         <v>64449.76908529997</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15554,7 +16952,7 @@
         <v>65276.29218529996</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15587,7 +16985,7 @@
         <v>65281.81768529997</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15785,7 +17183,7 @@
         <v>62838.99238529996</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15818,7 +17216,7 @@
         <v>61451.90898529996</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15851,7 +17249,7 @@
         <v>61602.00938689996</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15884,7 +17282,7 @@
         <v>61575.78418689996</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15917,7 +17315,7 @@
         <v>61575.78418689996</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15950,7 +17348,7 @@
         <v>61575.78418689996</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15983,7 +17381,7 @@
         <v>62608.95748689996</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16016,7 +17414,7 @@
         <v>56827.21368689997</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16049,7 +17447,7 @@
         <v>59272.67618689997</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -20075,7 +21473,7 @@
         <v>83465.38045619994</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20174,7 +21572,7 @@
         <v>83273.32505619994</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20207,7 +21605,7 @@
         <v>81177.49595619994</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20240,7 +21638,7 @@
         <v>82343.36825619994</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20273,7 +21671,7 @@
         <v>82343.36825619994</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20306,7 +21704,7 @@
         <v>82343.36825619994</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20339,7 +21737,7 @@
         <v>84528.47845619994</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20372,7 +21770,7 @@
         <v>84828.47845619994</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20405,7 +21803,7 @@
         <v>84196.47994061995</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20438,7 +21836,7 @@
         <v>84196.47994061995</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20471,7 +21869,7 @@
         <v>85851.09224061994</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20504,7 +21902,7 @@
         <v>86326.74544061994</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20537,7 +21935,7 @@
         <v>86358.55824061994</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20570,7 +21968,7 @@
         <v>86358.55824061994</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20603,7 +22001,7 @@
         <v>86739.99004061994</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20636,7 +22034,7 @@
         <v>85947.79584061995</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20669,7 +22067,7 @@
         <v>87082.12424061995</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20702,7 +22100,7 @@
         <v>85095.37433811995</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20735,7 +22133,7 @@
         <v>85099.46803811994</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20768,7 +22166,7 @@
         <v>84306.99683811994</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20801,7 +22199,7 @@
         <v>84306.99683811994</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20834,7 +22232,7 @@
         <v>84306.99683811994</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20845,6 +22243,6 @@
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-13 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>5381.32113077</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>9903.374330770001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>8776.976130770001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>9058.850130770001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>8971.850130770001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>10238.86363077</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>10342.76363077</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -6028,14 +6028,10 @@
         <v>17006.2351886</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1966</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6065,19 +6061,11 @@
         <v>16506.2351886</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1966</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1966</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6106,19 +6094,11 @@
         <v>16108.4277886</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1965</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1966</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,14 +6127,10 @@
         <v>16158.4277886</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6184,19 +6160,11 @@
         <v>15870.9637886</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1963</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6225,142 +6193,116 @@
         <v>15506.6978886</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1962</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1958</v>
+      </c>
+      <c r="F177" t="n">
+        <v>347.4257</v>
+      </c>
+      <c r="G177" t="n">
+        <v>15159.2721886</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1956</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1957</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1956</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1346.4015</v>
+      </c>
+      <c r="G178" t="n">
+        <v>13812.8706886</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1954</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1956</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1954</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1496.7677</v>
+      </c>
+      <c r="G179" t="n">
+        <v>12316.1029886</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1956</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1958</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1958</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1958</v>
-      </c>
-      <c r="F177" t="n">
-        <v>347.4257</v>
-      </c>
-      <c r="G177" t="n">
-        <v>15159.2721886</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1957</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1956</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1957</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1956</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1346.4015</v>
-      </c>
-      <c r="G178" t="n">
-        <v>13812.8706886</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1958</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1955</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1954</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1956</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1954</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1496.7677</v>
-      </c>
-      <c r="G179" t="n">
-        <v>12316.1029886</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1956</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6394,9 +6336,7 @@
       <c r="I180" t="n">
         <v>1954</v>
       </c>
-      <c r="J180" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,9 +6375,7 @@
       <c r="I181" t="n">
         <v>1953</v>
       </c>
-      <c r="J181" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,9 +6414,7 @@
       <c r="I182" t="n">
         <v>1954</v>
       </c>
-      <c r="J182" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,9 +6453,7 @@
       <c r="I183" t="n">
         <v>1954</v>
       </c>
-      <c r="J183" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6558,9 +6492,7 @@
       <c r="I184" t="n">
         <v>1958</v>
       </c>
-      <c r="J184" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6594,14 +6526,10 @@
         <v>11460.4790886</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1958</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,14 +6563,10 @@
         <v>11560.4790886</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1958</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6681,9 +6605,7 @@
       <c r="I187" t="n">
         <v>1965</v>
       </c>
-      <c r="J187" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6717,14 +6639,10 @@
         <v>11562.6633886</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1967</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6758,14 +6676,10 @@
         <v>11542.9790886</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1965</v>
-      </c>
-      <c r="J189" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,14 +6713,10 @@
         <v>11603.0463886</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1962</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6840,14 +6750,10 @@
         <v>7763.950788600001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1972</v>
-      </c>
-      <c r="J191" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6881,14 +6787,10 @@
         <v>7863.950788600001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1957</v>
-      </c>
-      <c r="J192" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,9 +6827,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,9 +6864,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,9 +6901,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7042,9 +6938,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,9 +6975,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7120,9 +7012,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,9 +7049,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7198,9 +7086,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7237,9 +7123,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7276,9 +7160,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,9 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7354,9 +7234,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7393,9 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,9 +7308,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7471,9 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,9 +7382,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,9 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7588,9 +7456,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7627,9 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7666,9 +7530,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7705,9 +7567,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,9 +7604,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7780,14 +7638,10 @@
         <v>2592.829053910001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1965</v>
-      </c>
-      <c r="J215" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,14 +7675,10 @@
         <v>2534.803353910001</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1965</v>
-      </c>
-      <c r="J216" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7862,14 +7712,10 @@
         <v>3085.130353910001</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1964</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7903,14 +7749,10 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1966</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,9 +7789,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7986,9 +7826,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8025,9 +7863,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,9 +7900,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,9 +7937,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,9 +7974,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,9 +8011,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,9 +8048,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,9 +8085,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,9 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,9 +8159,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,9 +8196,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +8233,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +8307,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,9 +8344,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +8381,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,9 +8418,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,9 +8492,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,9 +8529,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +8566,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,9 +8603,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,9 +8640,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,9 +8677,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +8714,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,9 +8751,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +8788,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,9 +8825,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,9 +8862,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,9 +8936,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9195,9 +8973,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,9 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,9 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9312,9 +9084,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9351,9 +9121,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +9158,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9429,9 +9195,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,9 +9232,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,9 +9269,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9546,9 +9306,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,9 +9343,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,9 +9380,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,9 +9417,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9702,9 +9454,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9738,14 +9488,10 @@
         <v>18007.52237763</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J265" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9779,14 +9525,10 @@
         <v>18101.85557763</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1964</v>
-      </c>
-      <c r="J266" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9820,14 +9562,10 @@
         <v>18002.35557763</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1965</v>
-      </c>
-      <c r="J267" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,9 +9602,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,14 +9636,10 @@
         <v>18332.13987763</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1964</v>
-      </c>
-      <c r="J269" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9941,14 +9673,10 @@
         <v>18924.90537763</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1961</v>
-      </c>
-      <c r="J270" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9982,14 +9710,10 @@
         <v>19003.53457763</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1968</v>
-      </c>
-      <c r="J271" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10023,14 +9747,10 @@
         <v>18767.16887763</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1969</v>
-      </c>
-      <c r="J272" t="n">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10067,9 +9787,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,9 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10145,9 +9861,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,9 +9898,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,9 +9935,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,9 +9972,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10301,9 +10009,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,9 +10046,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10379,9 +10083,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,9 +10120,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10457,9 +10157,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10496,9 +10194,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,9 +10231,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,20 +10265,16 @@
         <v>17621.23520263</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1961</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -10610,17 +10300,11 @@
         <v>16544.89290263</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10652,14 +10336,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10691,14 +10369,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10730,14 +10402,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10769,14 +10435,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10808,14 +10468,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10847,14 +10501,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10883,17 +10531,11 @@
         <v>19505.37100263</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10922,17 +10564,11 @@
         <v>19207.47100263</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10961,17 +10597,11 @@
         <v>16818.87810263</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11000,17 +10630,11 @@
         <v>16426.06500263</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11042,14 +10666,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11081,14 +10699,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11120,14 +10732,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11159,14 +10765,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11198,14 +10798,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11237,14 +10831,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11276,14 +10864,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11315,14 +10897,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11351,17 +10927,11 @@
         <v>31362.28950263</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11393,14 +10963,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11432,14 +10996,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11471,14 +11029,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11510,14 +11062,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11549,14 +11095,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11588,14 +11128,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11627,14 +11161,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11666,14 +11194,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11705,14 +11227,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11744,14 +11260,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11783,14 +11293,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11822,14 +11326,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11861,14 +11359,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11900,14 +11392,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11939,14 +11425,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11978,14 +11458,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12017,14 +11491,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12056,14 +11524,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12095,14 +11557,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12134,14 +11590,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12173,14 +11623,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12212,14 +11656,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12251,14 +11689,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12290,14 +11722,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12329,14 +11755,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12368,14 +11788,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12407,14 +11821,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12446,14 +11854,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12485,14 +11887,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12524,14 +11920,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12563,14 +11953,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12602,14 +11986,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12641,14 +12019,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12680,14 +12052,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12719,14 +12085,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12758,14 +12118,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12797,14 +12151,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12836,14 +12184,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12875,14 +12217,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12914,14 +12250,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12953,14 +12283,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12992,14 +12316,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13031,14 +12349,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13070,14 +12382,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13109,14 +12415,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13148,14 +12448,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13187,14 +12481,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13226,14 +12514,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13265,14 +12547,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13304,14 +12580,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13343,14 +12613,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13382,14 +12646,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13421,14 +12679,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13460,14 +12712,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13499,14 +12745,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13538,14 +12778,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13577,14 +12811,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13616,14 +12844,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13655,14 +12877,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13694,14 +12910,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13733,14 +12943,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13772,14 +12976,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13811,14 +13009,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13850,14 +13042,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13889,14 +13075,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13928,14 +13108,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13967,14 +13141,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14006,14 +13174,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14045,14 +13207,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14084,14 +13240,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14123,14 +13273,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14162,14 +13306,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14201,14 +13339,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14240,14 +13372,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14279,14 +13405,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14318,14 +13438,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14357,14 +13471,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14396,14 +13504,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14435,14 +13537,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14474,14 +13570,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14513,14 +13603,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14552,14 +13636,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14591,14 +13669,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14630,14 +13702,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14669,14 +13735,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14708,14 +13768,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14747,14 +13801,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14786,14 +13834,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14825,14 +13867,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14864,14 +13900,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14903,14 +13933,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14942,14 +13966,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14981,14 +13999,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15020,14 +14032,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15059,14 +14065,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15098,14 +14098,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15137,14 +14131,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15176,14 +14164,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15215,14 +14197,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15254,14 +14230,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15293,14 +14263,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15329,19 +14293,13 @@
         <v>80487.88400262999</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>1961</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
-        <v>1.029166241713412</v>
+        <v>1</v>
       </c>
       <c r="M408" t="inlineStr"/>
     </row>
@@ -15368,7 +14326,7 @@
         <v>77935.75710262998</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15401,7 +14359,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15434,7 +14392,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15467,7 +14425,7 @@
         <v>78374.01410262998</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15500,7 +14458,7 @@
         <v>77576.01410262998</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15533,7 +14491,7 @@
         <v>76738.02140262998</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15566,7 +14524,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15599,7 +14557,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15632,7 +14590,7 @@
         <v>79738.72110262998</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15665,7 +14623,7 @@
         <v>79447.28900262997</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15698,7 +14656,7 @@
         <v>81980.74742086997</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15731,7 +14689,7 @@
         <v>81172.62713359998</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15764,7 +14722,7 @@
         <v>83293.99922808998</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15797,7 +14755,7 @@
         <v>83255.59162808997</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15830,7 +14788,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15863,7 +14821,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15896,7 +14854,7 @@
         <v>84239.95590498997</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15929,7 +14887,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15962,7 +14920,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15995,7 +14953,7 @@
         <v>84284.87808421996</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16028,7 +14986,7 @@
         <v>83967.34288421996</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16061,7 +15019,7 @@
         <v>83588.20858421996</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16127,7 +15085,7 @@
         <v>83976.50278421996</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16160,7 +15118,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16193,7 +15151,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16226,7 +15184,7 @@
         <v>84195.11068421997</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16292,7 +15250,7 @@
         <v>79027.36098421997</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16325,7 +15283,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16358,7 +15316,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16457,7 +15415,7 @@
         <v>78935.65268529997</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16589,7 +15547,7 @@
         <v>78875.65268529997</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16622,7 +15580,7 @@
         <v>78875.65268529997</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16655,7 +15613,7 @@
         <v>78771.29508529996</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16688,7 +15646,7 @@
         <v>78771.29508529996</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16721,7 +15679,7 @@
         <v>77904.66568529996</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16754,7 +15712,7 @@
         <v>78105.45958529996</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16787,7 +15745,7 @@
         <v>73327.70498529996</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16820,7 +15778,7 @@
         <v>73091.71318529996</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16853,7 +15811,7 @@
         <v>73065.68728529997</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16886,7 +15844,7 @@
         <v>70155.76908529997</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16919,7 +15877,7 @@
         <v>64449.76908529997</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16952,7 +15910,7 @@
         <v>65276.29218529996</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16985,7 +15943,7 @@
         <v>65281.81768529997</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17183,7 +16141,7 @@
         <v>62838.99238529996</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17216,7 +16174,7 @@
         <v>61451.90898529996</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17249,7 +16207,7 @@
         <v>61602.00938689996</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17282,7 +16240,7 @@
         <v>61575.78418689996</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17414,7 +16372,7 @@
         <v>56827.21368689997</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -21704,7 +20662,7 @@
         <v>82343.36825619994</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21737,7 +20695,7 @@
         <v>84528.47845619994</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21968,7 +20926,7 @@
         <v>86358.55824061994</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22243,6 +21201,6 @@
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-13 BackTest QTUM.xlsx
@@ -451,7 +451,7 @@
         <v>-2748.16506923</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,11 +517,17 @@
         <v>-2834.34296923</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1982</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +560,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +593,17 @@
         <v>-2898.54096923</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1979</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +632,17 @@
         <v>-337.3048692299999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1975</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +745,17 @@
         <v>1702.68823077</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1981</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +788,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +821,17 @@
         <v>2362.77183077</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1984</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +864,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +901,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +938,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +971,15 @@
         <v>5381.32113077</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1008,15 @@
         <v>9903.374330770001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1045,15 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1082,15 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1119,15 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1156,15 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1193,15 @@
         <v>8776.976130770001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1230,15 @@
         <v>9058.850130770001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1267,15 @@
         <v>8971.850130770001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1304,15 @@
         <v>10238.86363077</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1341,15 @@
         <v>10342.76363077</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1382,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1419,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1456,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1493,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1530,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1567,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1604,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1641,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1678,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1715,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1752,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1789,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1826,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1863,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1900,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1937,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1974,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2011,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2048,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2085,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2122,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2159,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2196,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2233,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2270,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2307,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2344,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2381,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2418,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2455,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2492,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2529,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2566,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2603,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2640,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2677,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2714,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2751,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2788,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2825,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2862,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2899,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2936,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2973,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3010,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3047,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3084,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3121,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3158,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3195,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3232,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3269,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3306,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3343,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3380,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3417,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3454,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3491,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3528,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3565,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3602,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3639,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3676,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3713,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3750,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3787,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3824,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3861,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3898,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3935,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3972,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4009,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4046,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4083,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4120,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4157,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4194,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4231,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4268,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4305,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4342,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4379,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4416,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4453,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4490,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4527,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4564,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4601,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4638,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4675,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4712,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4749,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4786,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4823,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4860,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4897,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4934,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4971,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5008,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5045,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5082,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5119,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5156,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5193,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5230,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5267,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5304,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5341,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5378,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5415,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5452,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5489,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5526,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5563,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5600,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5637,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5674,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5711,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5748,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5785,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5822,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5859,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5896,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5933,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5970,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6007,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6044,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6081,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6118,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6155,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6192,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6229,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6266,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6303,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6340,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6377,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6414,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6451,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6488,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6525,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6562,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6599,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6636,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6673,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6710,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6747,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6784,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6821,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6858,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6895,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6932,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6969,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,15 +7002,13 @@
         <v>12316.1029886</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6331,11 +7039,9 @@
         <v>11237.9640886</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6370,11 +7076,9 @@
         <v>11255.9640886</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6409,11 +7113,9 @@
         <v>11255.9640886</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6526,9 +7228,11 @@
         <v>11460.4790886</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1958</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6600,11 +7304,9 @@
         <v>11563.0120886</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7490,9 +8192,11 @@
         <v>1771.667453910001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1964</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7527,9 +8231,11 @@
         <v>2604.112953910001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1965</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7564,9 +8270,11 @@
         <v>2604.112953910001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1967</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7601,9 +8309,11 @@
         <v>2592.829053910001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1967</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -7638,9 +8348,11 @@
         <v>2592.829053910001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1965</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -7675,9 +8387,11 @@
         <v>2534.803353910001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1965</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -7712,9 +8426,11 @@
         <v>3085.130353910001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1964</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7749,9 +8465,11 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1966</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7786,9 +8504,11 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1968</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -7823,9 +8543,11 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1968</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -7860,9 +8582,11 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1968</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -7897,9 +8621,11 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1968</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -7934,9 +8660,11 @@
         <v>3555.786477630001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1968</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -7971,9 +8699,11 @@
         <v>3375.486477630001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1976</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8008,9 +8738,11 @@
         <v>3375.486477630001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1974</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8045,9 +8777,11 @@
         <v>4647.498377630001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1974</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8082,9 +8816,11 @@
         <v>4647.498377630001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1975</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8119,9 +8855,11 @@
         <v>5804.537277630001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1975</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8156,9 +8894,11 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1976</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8193,9 +8933,11 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1975</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8230,9 +8972,11 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1975</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8267,9 +9011,11 @@
         <v>7172.201677630001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1975</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8304,9 +9050,11 @@
         <v>7172.201677630001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1978</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8341,9 +9089,11 @@
         <v>7253.13637763</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1978</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8378,9 +9128,11 @@
         <v>7253.13637763</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1980</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8489,9 +9241,11 @@
         <v>7314.83637763</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1978</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8526,9 +9280,11 @@
         <v>6734.23637763</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1979</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8748,9 +9504,11 @@
         <v>6464.348777629999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1970</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8785,9 +9543,11 @@
         <v>5873.087077629999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1977</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8822,9 +9582,11 @@
         <v>5873.087077629999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1975</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8859,9 +9621,11 @@
         <v>5724.205077629999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1975</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8896,9 +9660,11 @@
         <v>5725.205077629999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1974</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8970,9 +9736,11 @@
         <v>4855.548177629999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1977</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9007,9 +9775,11 @@
         <v>4864.787377629999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1974</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9044,9 +9814,11 @@
         <v>4174.675177629999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1978</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9081,9 +9853,11 @@
         <v>4149.459177629999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1973</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9118,9 +9892,11 @@
         <v>3968.743477629998</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1970</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9155,9 +9931,11 @@
         <v>3868.743477629998</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1964</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9192,9 +9970,11 @@
         <v>7454.799577629998</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1963</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9229,9 +10009,11 @@
         <v>17326.10227763</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1967</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9451,9 +10233,11 @@
         <v>17854.78237763</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1964</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9488,9 +10272,11 @@
         <v>18007.52237763</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1961</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9636,9 +10422,11 @@
         <v>18332.13987763</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1964</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10265,16 +11053,18 @@
         <v>17621.23520263</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -10300,11 +11090,15 @@
         <v>16544.89290263</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10337,7 +11131,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10370,7 +11168,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10403,7 +11205,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10436,7 +11242,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10469,7 +11279,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10502,7 +11316,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10531,11 +11349,15 @@
         <v>19505.37100263</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10564,11 +11386,15 @@
         <v>19207.47100263</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10597,11 +11423,15 @@
         <v>16818.87810263</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10630,11 +11460,15 @@
         <v>16426.06500263</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10667,7 +11501,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10700,7 +11538,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10733,7 +11575,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10766,7 +11612,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10799,7 +11649,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10832,7 +11686,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10865,7 +11723,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10898,7 +11760,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10927,11 +11793,15 @@
         <v>31362.28950263</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10964,7 +11834,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10997,7 +11871,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11030,7 +11908,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11063,7 +11945,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11096,7 +11982,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11129,7 +12019,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11162,7 +12056,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11195,7 +12093,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11228,7 +12130,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11261,7 +12167,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11294,7 +12204,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11327,7 +12241,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11360,7 +12278,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11393,7 +12315,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11426,7 +12352,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11459,7 +12389,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11492,7 +12426,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11525,7 +12463,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11558,7 +12500,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11591,7 +12537,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11624,7 +12574,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11657,7 +12611,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11690,7 +12648,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11723,7 +12685,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11756,7 +12722,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11789,7 +12759,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11822,7 +12796,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11855,7 +12833,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11888,7 +12870,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11921,7 +12907,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11954,7 +12944,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11987,7 +12981,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12020,7 +13018,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12053,7 +13055,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12086,7 +13092,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12119,7 +13129,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12152,7 +13166,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12185,7 +13203,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +13240,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12251,7 +13277,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12284,7 +13314,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12317,7 +13351,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12350,7 +13388,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12383,7 +13425,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12416,7 +13462,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12449,7 +13499,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12482,7 +13536,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12515,7 +13573,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12548,7 +13610,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12581,7 +13647,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12614,7 +13684,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12647,7 +13721,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12680,7 +13758,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12713,7 +13795,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12746,7 +13832,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12779,7 +13869,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12812,7 +13906,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12845,7 +13943,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12878,7 +13980,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12911,7 +14017,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12944,7 +14054,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12977,7 +14091,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13010,7 +14128,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13043,7 +14165,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13076,7 +14202,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13109,7 +14239,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13142,7 +14276,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13175,7 +14313,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13208,7 +14350,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13241,7 +14387,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13274,7 +14424,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13307,7 +14461,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13340,7 +14498,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13373,7 +14535,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13406,7 +14572,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13439,7 +14609,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13472,7 +14646,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13505,7 +14683,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13538,7 +14720,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13571,7 +14757,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13604,7 +14794,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13637,7 +14831,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13670,7 +14868,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13703,7 +14905,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13732,14 +14938,16 @@
         <v>69462.61200263001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
@@ -13963,7 +15171,7 @@
         <v>72893.28400263001</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13996,7 +15204,7 @@
         <v>72235.41620263</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14029,7 +15237,7 @@
         <v>71359.52580263</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14062,7 +15270,7 @@
         <v>72479.56680263</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14095,7 +15303,7 @@
         <v>72479.56680263</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14128,7 +15336,7 @@
         <v>72479.56680263</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14161,7 +15369,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14194,7 +15402,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14227,7 +15435,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14260,7 +15468,7 @@
         <v>80729.38700262998</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14293,7 +15501,7 @@
         <v>80487.88400262999</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14326,7 +15534,7 @@
         <v>77935.75710262998</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14359,7 +15567,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14392,7 +15600,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14425,7 +15633,7 @@
         <v>78374.01410262998</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14458,7 +15666,7 @@
         <v>77576.01410262998</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14491,7 +15699,7 @@
         <v>76738.02140262998</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14524,7 +15732,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14557,7 +15765,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14590,7 +15798,7 @@
         <v>79738.72110262998</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14623,7 +15831,7 @@
         <v>79447.28900262997</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14656,7 +15864,7 @@
         <v>81980.74742086997</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14689,7 +15897,7 @@
         <v>81172.62713359998</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14722,7 +15930,7 @@
         <v>83293.99922808998</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14755,7 +15963,7 @@
         <v>83255.59162808997</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14788,7 +15996,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14821,7 +16029,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14854,7 +16062,7 @@
         <v>84239.95590498997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14887,7 +16095,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14920,7 +16128,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14953,7 +16161,7 @@
         <v>84284.87808421996</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14986,7 +16194,7 @@
         <v>83967.34288421996</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15019,7 +16227,7 @@
         <v>83588.20858421996</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15052,7 +16260,7 @@
         <v>84346.97238421996</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15085,7 +16293,7 @@
         <v>83976.50278421996</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15118,7 +16326,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15151,7 +16359,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15184,7 +16392,7 @@
         <v>84195.11068421997</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15217,7 +16425,7 @@
         <v>79013.77318421997</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15250,7 +16458,7 @@
         <v>79027.36098421997</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15316,7 +16524,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -20662,7 +21870,7 @@
         <v>82343.36825619994</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20695,7 +21903,7 @@
         <v>84528.47845619994</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20926,7 +22134,7 @@
         <v>86358.55824061994</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
